--- a/biology/Biologie cellulaire et moléculaire/Fécondation_externe/Fécondation_externe.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Fécondation_externe/Fécondation_externe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9condation_externe</t>
+          <t>Fécondation_externe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fécondation externe est un mode de reproduction sexuée où les gamètes mâles et femelle (spermatozoïdes et l'ovule) se reproduisent le plus souvent dans un milieu aquatique dans lequel se produit la fécondation et le développement de l'embryon. Le processus de fécondation externe peut également être appelé frai. Ces œufs ont une coquille qui les protège de l'extérieur, mais qui peut être facilement pénétrée par le sperme[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fécondation externe est un mode de reproduction sexuée où les gamètes mâles et femelle (spermatozoïdes et l'ovule) se reproduisent le plus souvent dans un milieu aquatique dans lequel se produit la fécondation et le développement de l'embryon. Le processus de fécondation externe peut également être appelé frai. Ces œufs ont une coquille qui les protège de l'extérieur, mais qui peut être facilement pénétrée par le sperme.
 </t>
         </is>
       </c>
